--- a/backend/main/static/main/other/ScheduleTemplate.xlsx
+++ b/backend/main/static/main/other/ScheduleTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSankiewicz\Desktop\Blog posts\Create An Excel Schedule Template in Minutes\4-Excel-Templates-RU\4-Excel-Templates-RU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saygi\PycharmProjects\SchoolProject\backend\main\static\main\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF898A74-B6AF-44FC-A7EA-1C391B4EFAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6EB940-8314-4C83-87A5-27AEADD0950E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -598,13 +598,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -614,6 +607,13 @@
         <top style="thin">
           <color auto="1"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -650,7 +650,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A5:H34" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A5:H34" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A5:H34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="7"/>
@@ -988,25 +988,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO169"/>
+  <dimension ref="A1:BO168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="30.25" customWidth="1"/>
-    <col min="5" max="5" width="38.75" customWidth="1"/>
-    <col min="6" max="6" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" customWidth="1"/>
+    <col min="4" max="4" width="30.19921875" customWidth="1"/>
+    <col min="5" max="5" width="38.69921875" customWidth="1"/>
+    <col min="6" max="6" width="29.19921875" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="40.9" customHeight="1">
+    <row r="1" spans="1:67" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
     </row>
-    <row r="2" spans="1:67" ht="40.9" customHeight="1">
+    <row r="2" spans="1:67" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
     </row>
-    <row r="3" spans="1:67" ht="40.9" customHeight="1">
+    <row r="3" spans="1:67" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
     </row>
-    <row r="4" spans="1:67" ht="21">
+    <row r="4" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="BN4" s="2"/>
       <c r="BO4" s="2"/>
     </row>
-    <row r="5" spans="1:67" ht="28.9" hidden="1" customHeight="1">
+    <row r="5" spans="1:67" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1329,17 +1329,31 @@
       <c r="BN5" s="2"/>
       <c r="BO5" s="2"/>
     </row>
-    <row r="6" spans="1:67" ht="28.9" customHeight="1">
+    <row r="6" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1400,7 +1414,7 @@
       <c r="BN6" s="2"/>
       <c r="BO6" s="2"/>
     </row>
-    <row r="7" spans="1:67" ht="28.9" customHeight="1">
+    <row r="7" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -1409,7 +1423,9 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1471,7 +1487,7 @@
       <c r="BN7" s="2"/>
       <c r="BO7" s="2"/>
     </row>
-    <row r="8" spans="1:67" ht="28.9" customHeight="1">
+    <row r="8" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -1542,7 +1558,7 @@
       <c r="BN8" s="2"/>
       <c r="BO8" s="2"/>
     </row>
-    <row r="9" spans="1:67" ht="28.9" customHeight="1">
+    <row r="9" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
@@ -1613,7 +1629,7 @@
       <c r="BN9" s="2"/>
       <c r="BO9" s="2"/>
     </row>
-    <row r="10" spans="1:67" ht="28.9" customHeight="1">
+    <row r="10" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1684,7 +1700,7 @@
       <c r="BN10" s="2"/>
       <c r="BO10" s="2"/>
     </row>
-    <row r="11" spans="1:67" ht="28.9" customHeight="1">
+    <row r="11" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
@@ -1755,7 +1771,7 @@
       <c r="BN11" s="2"/>
       <c r="BO11" s="2"/>
     </row>
-    <row r="12" spans="1:67" ht="28.9" customHeight="1">
+    <row r="12" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
@@ -1826,7 +1842,7 @@
       <c r="BN12" s="2"/>
       <c r="BO12" s="2"/>
     </row>
-    <row r="13" spans="1:67" ht="28.9" customHeight="1">
+    <row r="13" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
@@ -1897,7 +1913,7 @@
       <c r="BN13" s="2"/>
       <c r="BO13" s="2"/>
     </row>
-    <row r="14" spans="1:67" ht="28.9" customHeight="1">
+    <row r="14" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>27</v>
       </c>
@@ -1968,7 +1984,7 @@
       <c r="BN14" s="2"/>
       <c r="BO14" s="2"/>
     </row>
-    <row r="15" spans="1:67" ht="28.9" customHeight="1">
+    <row r="15" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>28</v>
       </c>
@@ -2039,7 +2055,7 @@
       <c r="BN15" s="2"/>
       <c r="BO15" s="2"/>
     </row>
-    <row r="16" spans="1:67" ht="28.9" customHeight="1">
+    <row r="16" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
@@ -2110,7 +2126,7 @@
       <c r="BN16" s="2"/>
       <c r="BO16" s="2"/>
     </row>
-    <row r="17" spans="1:67" ht="28.9" customHeight="1">
+    <row r="17" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>30</v>
       </c>
@@ -2181,7 +2197,7 @@
       <c r="BN17" s="2"/>
       <c r="BO17" s="2"/>
     </row>
-    <row r="18" spans="1:67" ht="28.9" customHeight="1">
+    <row r="18" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -2252,7 +2268,7 @@
       <c r="BN18" s="2"/>
       <c r="BO18" s="2"/>
     </row>
-    <row r="19" spans="1:67" ht="28.9" customHeight="1">
+    <row r="19" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>32</v>
       </c>
@@ -2323,7 +2339,7 @@
       <c r="BN19" s="2"/>
       <c r="BO19" s="2"/>
     </row>
-    <row r="20" spans="1:67" ht="28.9" customHeight="1">
+    <row r="20" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
@@ -2394,7 +2410,7 @@
       <c r="BN20" s="2"/>
       <c r="BO20" s="2"/>
     </row>
-    <row r="21" spans="1:67" ht="28.9" customHeight="1">
+    <row r="21" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>34</v>
       </c>
@@ -2465,7 +2481,7 @@
       <c r="BN21" s="2"/>
       <c r="BO21" s="2"/>
     </row>
-    <row r="22" spans="1:67" ht="28.9" customHeight="1">
+    <row r="22" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
@@ -2536,7 +2552,7 @@
       <c r="BN22" s="2"/>
       <c r="BO22" s="2"/>
     </row>
-    <row r="23" spans="1:67" ht="28.9" customHeight="1">
+    <row r="23" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>36</v>
       </c>
@@ -2607,7 +2623,7 @@
       <c r="BN23" s="2"/>
       <c r="BO23" s="2"/>
     </row>
-    <row r="24" spans="1:67" ht="28.9" customHeight="1">
+    <row r="24" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>37</v>
       </c>
@@ -2678,7 +2694,7 @@
       <c r="BN24" s="2"/>
       <c r="BO24" s="2"/>
     </row>
-    <row r="25" spans="1:67" ht="28.9" customHeight="1">
+    <row r="25" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
@@ -2749,7 +2765,7 @@
       <c r="BN25" s="2"/>
       <c r="BO25" s="2"/>
     </row>
-    <row r="26" spans="1:67" ht="28.9" customHeight="1">
+    <row r="26" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>39</v>
       </c>
@@ -2820,7 +2836,7 @@
       <c r="BN26" s="2"/>
       <c r="BO26" s="2"/>
     </row>
-    <row r="27" spans="1:67" ht="28.9" customHeight="1">
+    <row r="27" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>40</v>
       </c>
@@ -2891,7 +2907,7 @@
       <c r="BN27" s="2"/>
       <c r="BO27" s="2"/>
     </row>
-    <row r="28" spans="1:67" ht="28.9" customHeight="1">
+    <row r="28" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>41</v>
       </c>
@@ -2962,7 +2978,7 @@
       <c r="BN28" s="2"/>
       <c r="BO28" s="2"/>
     </row>
-    <row r="29" spans="1:67" ht="28.9" customHeight="1">
+    <row r="29" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>42</v>
       </c>
@@ -3033,7 +3049,7 @@
       <c r="BN29" s="2"/>
       <c r="BO29" s="2"/>
     </row>
-    <row r="30" spans="1:67" ht="28.9" customHeight="1">
+    <row r="30" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>43</v>
       </c>
@@ -3104,7 +3120,7 @@
       <c r="BN30" s="2"/>
       <c r="BO30" s="2"/>
     </row>
-    <row r="31" spans="1:67" ht="28.9" customHeight="1">
+    <row r="31" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>44</v>
       </c>
@@ -3175,7 +3191,7 @@
       <c r="BN31" s="2"/>
       <c r="BO31" s="2"/>
     </row>
-    <row r="32" spans="1:67" ht="28.9" customHeight="1">
+    <row r="32" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>45</v>
       </c>
@@ -3246,7 +3262,7 @@
       <c r="BN32" s="2"/>
       <c r="BO32" s="2"/>
     </row>
-    <row r="33" spans="1:67" ht="28.9" customHeight="1">
+    <row r="33" spans="1:67" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>46</v>
       </c>
@@ -3317,7 +3333,7 @@
       <c r="BN33" s="2"/>
       <c r="BO33" s="2"/>
     </row>
-    <row r="34" spans="1:67">
+    <row r="34" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3386,7 +3402,7 @@
       <c r="BN34" s="2"/>
       <c r="BO34" s="2"/>
     </row>
-    <row r="35" spans="1:67">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3455,7 +3471,7 @@
       <c r="BN35" s="2"/>
       <c r="BO35" s="2"/>
     </row>
-    <row r="36" spans="1:67" ht="15.75">
+    <row r="36" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3524,7 +3540,7 @@
       <c r="BN36" s="2"/>
       <c r="BO36" s="2"/>
     </row>
-    <row r="37" spans="1:67">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3593,7 +3609,7 @@
       <c r="BN37" s="2"/>
       <c r="BO37" s="2"/>
     </row>
-    <row r="38" spans="1:67">
+    <row r="38" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3662,7 +3678,7 @@
       <c r="BN38" s="2"/>
       <c r="BO38" s="2"/>
     </row>
-    <row r="39" spans="1:67">
+    <row r="39" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3731,7 +3747,7 @@
       <c r="BN39" s="2"/>
       <c r="BO39" s="2"/>
     </row>
-    <row r="40" spans="1:67">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3800,7 +3816,7 @@
       <c r="BN40" s="2"/>
       <c r="BO40" s="2"/>
     </row>
-    <row r="41" spans="1:67">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3869,7 +3885,7 @@
       <c r="BN41" s="2"/>
       <c r="BO41" s="2"/>
     </row>
-    <row r="42" spans="1:67">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3938,7 +3954,7 @@
       <c r="BN42" s="2"/>
       <c r="BO42" s="2"/>
     </row>
-    <row r="43" spans="1:67">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4007,7 +4023,7 @@
       <c r="BN43" s="2"/>
       <c r="BO43" s="2"/>
     </row>
-    <row r="44" spans="1:67">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4076,7 +4092,7 @@
       <c r="BN44" s="2"/>
       <c r="BO44" s="2"/>
     </row>
-    <row r="45" spans="1:67">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4145,7 +4161,7 @@
       <c r="BN45" s="2"/>
       <c r="BO45" s="2"/>
     </row>
-    <row r="46" spans="1:67">
+    <row r="46" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4214,7 +4230,7 @@
       <c r="BN46" s="2"/>
       <c r="BO46" s="2"/>
     </row>
-    <row r="47" spans="1:67">
+    <row r="47" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4283,7 +4299,7 @@
       <c r="BN47" s="2"/>
       <c r="BO47" s="2"/>
     </row>
-    <row r="48" spans="1:67">
+    <row r="48" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4352,7 +4368,7 @@
       <c r="BN48" s="2"/>
       <c r="BO48" s="2"/>
     </row>
-    <row r="49" spans="1:67">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4421,7 +4437,7 @@
       <c r="BN49" s="2"/>
       <c r="BO49" s="2"/>
     </row>
-    <row r="50" spans="1:67">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4490,7 +4506,7 @@
       <c r="BN50" s="2"/>
       <c r="BO50" s="2"/>
     </row>
-    <row r="51" spans="1:67">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4559,7 +4575,7 @@
       <c r="BN51" s="2"/>
       <c r="BO51" s="2"/>
     </row>
-    <row r="52" spans="1:67">
+    <row r="52" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4628,7 +4644,7 @@
       <c r="BN52" s="2"/>
       <c r="BO52" s="2"/>
     </row>
-    <row r="53" spans="1:67">
+    <row r="53" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4697,7 +4713,7 @@
       <c r="BN53" s="2"/>
       <c r="BO53" s="2"/>
     </row>
-    <row r="54" spans="1:67">
+    <row r="54" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4766,7 +4782,7 @@
       <c r="BN54" s="2"/>
       <c r="BO54" s="2"/>
     </row>
-    <row r="55" spans="1:67">
+    <row r="55" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4835,7 +4851,7 @@
       <c r="BN55" s="2"/>
       <c r="BO55" s="2"/>
     </row>
-    <row r="56" spans="1:67">
+    <row r="56" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4904,7 +4920,7 @@
       <c r="BN56" s="2"/>
       <c r="BO56" s="2"/>
     </row>
-    <row r="57" spans="1:67">
+    <row r="57" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4973,7 +4989,7 @@
       <c r="BN57" s="2"/>
       <c r="BO57" s="2"/>
     </row>
-    <row r="58" spans="1:67">
+    <row r="58" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -5042,7 +5058,7 @@
       <c r="BN58" s="2"/>
       <c r="BO58" s="2"/>
     </row>
-    <row r="59" spans="1:67">
+    <row r="59" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -5111,7 +5127,7 @@
       <c r="BN59" s="2"/>
       <c r="BO59" s="2"/>
     </row>
-    <row r="60" spans="1:67">
+    <row r="60" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -5180,7 +5196,7 @@
       <c r="BN60" s="2"/>
       <c r="BO60" s="2"/>
     </row>
-    <row r="61" spans="1:67">
+    <row r="61" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -5249,7 +5265,7 @@
       <c r="BN61" s="2"/>
       <c r="BO61" s="2"/>
     </row>
-    <row r="62" spans="1:67">
+    <row r="62" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -5318,7 +5334,7 @@
       <c r="BN62" s="2"/>
       <c r="BO62" s="2"/>
     </row>
-    <row r="63" spans="1:67">
+    <row r="63" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -5387,7 +5403,7 @@
       <c r="BN63" s="2"/>
       <c r="BO63" s="2"/>
     </row>
-    <row r="64" spans="1:67">
+    <row r="64" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -5456,7 +5472,7 @@
       <c r="BN64" s="2"/>
       <c r="BO64" s="2"/>
     </row>
-    <row r="65" spans="1:67">
+    <row r="65" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -5525,7 +5541,7 @@
       <c r="BN65" s="2"/>
       <c r="BO65" s="2"/>
     </row>
-    <row r="66" spans="1:67">
+    <row r="66" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -5594,7 +5610,7 @@
       <c r="BN66" s="2"/>
       <c r="BO66" s="2"/>
     </row>
-    <row r="67" spans="1:67">
+    <row r="67" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -5662,7 +5678,7 @@
       <c r="BM67" s="2"/>
       <c r="BN67" s="2"/>
     </row>
-    <row r="68" spans="1:67">
+    <row r="68" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -5730,7 +5746,7 @@
       <c r="BM68" s="2"/>
       <c r="BN68" s="2"/>
     </row>
-    <row r="69" spans="1:67">
+    <row r="69" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5798,7 +5814,7 @@
       <c r="BM69" s="2"/>
       <c r="BN69" s="2"/>
     </row>
-    <row r="70" spans="1:67">
+    <row r="70" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5866,7 +5882,7 @@
       <c r="BM70" s="2"/>
       <c r="BN70" s="2"/>
     </row>
-    <row r="71" spans="1:67">
+    <row r="71" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5934,7 +5950,7 @@
       <c r="BM71" s="2"/>
       <c r="BN71" s="2"/>
     </row>
-    <row r="72" spans="1:67">
+    <row r="72" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6002,7 +6018,7 @@
       <c r="BM72" s="2"/>
       <c r="BN72" s="2"/>
     </row>
-    <row r="73" spans="1:67">
+    <row r="73" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6070,7 +6086,7 @@
       <c r="BM73" s="2"/>
       <c r="BN73" s="2"/>
     </row>
-    <row r="74" spans="1:67">
+    <row r="74" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6138,7 +6154,7 @@
       <c r="BM74" s="2"/>
       <c r="BN74" s="2"/>
     </row>
-    <row r="75" spans="1:67">
+    <row r="75" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6206,7 +6222,7 @@
       <c r="BM75" s="2"/>
       <c r="BN75" s="2"/>
     </row>
-    <row r="76" spans="1:67">
+    <row r="76" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6274,7 +6290,7 @@
       <c r="BM76" s="2"/>
       <c r="BN76" s="2"/>
     </row>
-    <row r="77" spans="1:67">
+    <row r="77" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6342,7 +6358,7 @@
       <c r="BM77" s="2"/>
       <c r="BN77" s="2"/>
     </row>
-    <row r="78" spans="1:67">
+    <row r="78" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6410,7 +6426,7 @@
       <c r="BM78" s="2"/>
       <c r="BN78" s="2"/>
     </row>
-    <row r="79" spans="1:67">
+    <row r="79" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6478,7 +6494,7 @@
       <c r="BM79" s="2"/>
       <c r="BN79" s="2"/>
     </row>
-    <row r="80" spans="1:67">
+    <row r="80" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6546,7 +6562,7 @@
       <c r="BM80" s="2"/>
       <c r="BN80" s="2"/>
     </row>
-    <row r="81" spans="1:66">
+    <row r="81" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6614,7 +6630,7 @@
       <c r="BM81" s="2"/>
       <c r="BN81" s="2"/>
     </row>
-    <row r="82" spans="1:66">
+    <row r="82" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6682,7 +6698,7 @@
       <c r="BM82" s="2"/>
       <c r="BN82" s="2"/>
     </row>
-    <row r="83" spans="1:66">
+    <row r="83" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6750,7 +6766,7 @@
       <c r="BM83" s="2"/>
       <c r="BN83" s="2"/>
     </row>
-    <row r="84" spans="1:66">
+    <row r="84" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6818,7 +6834,7 @@
       <c r="BM84" s="2"/>
       <c r="BN84" s="2"/>
     </row>
-    <row r="85" spans="1:66">
+    <row r="85" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6886,7 +6902,7 @@
       <c r="BM85" s="2"/>
       <c r="BN85" s="2"/>
     </row>
-    <row r="86" spans="1:66">
+    <row r="86" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6954,7 +6970,7 @@
       <c r="BM86" s="2"/>
       <c r="BN86" s="2"/>
     </row>
-    <row r="87" spans="1:66">
+    <row r="87" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7022,7 +7038,7 @@
       <c r="BM87" s="2"/>
       <c r="BN87" s="2"/>
     </row>
-    <row r="88" spans="1:66">
+    <row r="88" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7090,7 +7106,7 @@
       <c r="BM88" s="2"/>
       <c r="BN88" s="2"/>
     </row>
-    <row r="89" spans="1:66">
+    <row r="89" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7158,7 +7174,7 @@
       <c r="BM89" s="2"/>
       <c r="BN89" s="2"/>
     </row>
-    <row r="90" spans="1:66">
+    <row r="90" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7226,7 +7242,7 @@
       <c r="BM90" s="2"/>
       <c r="BN90" s="2"/>
     </row>
-    <row r="91" spans="1:66">
+    <row r="91" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7294,7 +7310,7 @@
       <c r="BM91" s="2"/>
       <c r="BN91" s="2"/>
     </row>
-    <row r="92" spans="1:66">
+    <row r="92" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7362,7 +7378,7 @@
       <c r="BM92" s="2"/>
       <c r="BN92" s="2"/>
     </row>
-    <row r="93" spans="1:66">
+    <row r="93" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7430,7 +7446,7 @@
       <c r="BM93" s="2"/>
       <c r="BN93" s="2"/>
     </row>
-    <row r="94" spans="1:66">
+    <row r="94" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7498,7 +7514,7 @@
       <c r="BM94" s="2"/>
       <c r="BN94" s="2"/>
     </row>
-    <row r="95" spans="1:66">
+    <row r="95" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7566,7 +7582,7 @@
       <c r="BM95" s="2"/>
       <c r="BN95" s="2"/>
     </row>
-    <row r="96" spans="1:66">
+    <row r="96" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7634,7 +7650,7 @@
       <c r="BM96" s="2"/>
       <c r="BN96" s="2"/>
     </row>
-    <row r="97" spans="1:66">
+    <row r="97" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7702,7 +7718,7 @@
       <c r="BM97" s="2"/>
       <c r="BN97" s="2"/>
     </row>
-    <row r="98" spans="1:66">
+    <row r="98" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7770,7 +7786,7 @@
       <c r="BM98" s="2"/>
       <c r="BN98" s="2"/>
     </row>
-    <row r="99" spans="1:66">
+    <row r="99" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7838,7 +7854,7 @@
       <c r="BM99" s="2"/>
       <c r="BN99" s="2"/>
     </row>
-    <row r="100" spans="1:66">
+    <row r="100" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7906,7 +7922,7 @@
       <c r="BM100" s="2"/>
       <c r="BN100" s="2"/>
     </row>
-    <row r="101" spans="1:66">
+    <row r="101" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7974,7 +7990,7 @@
       <c r="BM101" s="2"/>
       <c r="BN101" s="2"/>
     </row>
-    <row r="102" spans="1:66">
+    <row r="102" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8042,7 +8058,7 @@
       <c r="BM102" s="2"/>
       <c r="BN102" s="2"/>
     </row>
-    <row r="103" spans="1:66">
+    <row r="103" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -8110,7 +8126,7 @@
       <c r="BM103" s="2"/>
       <c r="BN103" s="2"/>
     </row>
-    <row r="104" spans="1:66">
+    <row r="104" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -8178,7 +8194,7 @@
       <c r="BM104" s="2"/>
       <c r="BN104" s="2"/>
     </row>
-    <row r="105" spans="1:66">
+    <row r="105" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -8246,7 +8262,7 @@
       <c r="BM105" s="2"/>
       <c r="BN105" s="2"/>
     </row>
-    <row r="106" spans="1:66">
+    <row r="106" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -8314,7 +8330,7 @@
       <c r="BM106" s="2"/>
       <c r="BN106" s="2"/>
     </row>
-    <row r="107" spans="1:66">
+    <row r="107" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -8382,7 +8398,7 @@
       <c r="BM107" s="2"/>
       <c r="BN107" s="2"/>
     </row>
-    <row r="108" spans="1:66">
+    <row r="108" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -8450,7 +8466,7 @@
       <c r="BM108" s="2"/>
       <c r="BN108" s="2"/>
     </row>
-    <row r="109" spans="1:66">
+    <row r="109" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -8518,7 +8534,7 @@
       <c r="BM109" s="2"/>
       <c r="BN109" s="2"/>
     </row>
-    <row r="110" spans="1:66">
+    <row r="110" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -8586,7 +8602,7 @@
       <c r="BM110" s="2"/>
       <c r="BN110" s="2"/>
     </row>
-    <row r="111" spans="1:66">
+    <row r="111" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -8654,7 +8670,7 @@
       <c r="BM111" s="2"/>
       <c r="BN111" s="2"/>
     </row>
-    <row r="112" spans="1:66">
+    <row r="112" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -8722,7 +8738,7 @@
       <c r="BM112" s="2"/>
       <c r="BN112" s="2"/>
     </row>
-    <row r="113" spans="1:66">
+    <row r="113" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -8790,7 +8806,7 @@
       <c r="BM113" s="2"/>
       <c r="BN113" s="2"/>
     </row>
-    <row r="114" spans="1:66">
+    <row r="114" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -8858,7 +8874,7 @@
       <c r="BM114" s="2"/>
       <c r="BN114" s="2"/>
     </row>
-    <row r="115" spans="1:66">
+    <row r="115" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -8926,7 +8942,7 @@
       <c r="BM115" s="2"/>
       <c r="BN115" s="2"/>
     </row>
-    <row r="116" spans="1:66">
+    <row r="116" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -8994,7 +9010,7 @@
       <c r="BM116" s="2"/>
       <c r="BN116" s="2"/>
     </row>
-    <row r="117" spans="1:66">
+    <row r="117" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -9062,7 +9078,7 @@
       <c r="BM117" s="2"/>
       <c r="BN117" s="2"/>
     </row>
-    <row r="118" spans="1:66">
+    <row r="118" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -9130,7 +9146,7 @@
       <c r="BM118" s="2"/>
       <c r="BN118" s="2"/>
     </row>
-    <row r="119" spans="1:66">
+    <row r="119" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -9198,7 +9214,7 @@
       <c r="BM119" s="2"/>
       <c r="BN119" s="2"/>
     </row>
-    <row r="120" spans="1:66">
+    <row r="120" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -9266,7 +9282,7 @@
       <c r="BM120" s="2"/>
       <c r="BN120" s="2"/>
     </row>
-    <row r="121" spans="1:66">
+    <row r="121" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -9334,7 +9350,7 @@
       <c r="BM121" s="2"/>
       <c r="BN121" s="2"/>
     </row>
-    <row r="122" spans="1:66">
+    <row r="122" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -9402,7 +9418,7 @@
       <c r="BM122" s="2"/>
       <c r="BN122" s="2"/>
     </row>
-    <row r="123" spans="1:66">
+    <row r="123" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -9470,7 +9486,7 @@
       <c r="BM123" s="2"/>
       <c r="BN123" s="2"/>
     </row>
-    <row r="124" spans="1:66">
+    <row r="124" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -9538,7 +9554,7 @@
       <c r="BM124" s="2"/>
       <c r="BN124" s="2"/>
     </row>
-    <row r="125" spans="1:66">
+    <row r="125" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -9606,7 +9622,7 @@
       <c r="BM125" s="2"/>
       <c r="BN125" s="2"/>
     </row>
-    <row r="126" spans="1:66">
+    <row r="126" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -9674,7 +9690,7 @@
       <c r="BM126" s="2"/>
       <c r="BN126" s="2"/>
     </row>
-    <row r="127" spans="1:66">
+    <row r="127" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -9742,7 +9758,7 @@
       <c r="BM127" s="2"/>
       <c r="BN127" s="2"/>
     </row>
-    <row r="128" spans="1:66">
+    <row r="128" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -9810,7 +9826,7 @@
       <c r="BM128" s="2"/>
       <c r="BN128" s="2"/>
     </row>
-    <row r="129" spans="1:66">
+    <row r="129" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -9878,7 +9894,7 @@
       <c r="BM129" s="2"/>
       <c r="BN129" s="2"/>
     </row>
-    <row r="130" spans="1:66">
+    <row r="130" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -9946,7 +9962,7 @@
       <c r="BM130" s="2"/>
       <c r="BN130" s="2"/>
     </row>
-    <row r="131" spans="1:66">
+    <row r="131" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -10014,7 +10030,7 @@
       <c r="BM131" s="2"/>
       <c r="BN131" s="2"/>
     </row>
-    <row r="132" spans="1:66">
+    <row r="132" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -10082,7 +10098,7 @@
       <c r="BM132" s="2"/>
       <c r="BN132" s="2"/>
     </row>
-    <row r="133" spans="1:66">
+    <row r="133" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -10150,7 +10166,7 @@
       <c r="BM133" s="2"/>
       <c r="BN133" s="2"/>
     </row>
-    <row r="134" spans="1:66">
+    <row r="134" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -10218,7 +10234,7 @@
       <c r="BM134" s="2"/>
       <c r="BN134" s="2"/>
     </row>
-    <row r="135" spans="1:66">
+    <row r="135" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -10286,7 +10302,7 @@
       <c r="BM135" s="2"/>
       <c r="BN135" s="2"/>
     </row>
-    <row r="136" spans="1:66">
+    <row r="136" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -10354,7 +10370,7 @@
       <c r="BM136" s="2"/>
       <c r="BN136" s="2"/>
     </row>
-    <row r="137" spans="1:66">
+    <row r="137" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -10422,7 +10438,7 @@
       <c r="BM137" s="2"/>
       <c r="BN137" s="2"/>
     </row>
-    <row r="138" spans="1:66">
+    <row r="138" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -10490,7 +10506,7 @@
       <c r="BM138" s="2"/>
       <c r="BN138" s="2"/>
     </row>
-    <row r="139" spans="1:66">
+    <row r="139" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -10558,7 +10574,7 @@
       <c r="BM139" s="2"/>
       <c r="BN139" s="2"/>
     </row>
-    <row r="140" spans="1:66">
+    <row r="140" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -10626,7 +10642,7 @@
       <c r="BM140" s="2"/>
       <c r="BN140" s="2"/>
     </row>
-    <row r="141" spans="1:66">
+    <row r="141" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -10694,7 +10710,7 @@
       <c r="BM141" s="2"/>
       <c r="BN141" s="2"/>
     </row>
-    <row r="142" spans="1:66">
+    <row r="142" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -10762,7 +10778,7 @@
       <c r="BM142" s="2"/>
       <c r="BN142" s="2"/>
     </row>
-    <row r="143" spans="1:66">
+    <row r="143" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -10830,7 +10846,7 @@
       <c r="BM143" s="2"/>
       <c r="BN143" s="2"/>
     </row>
-    <row r="144" spans="1:66">
+    <row r="144" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -10898,7 +10914,7 @@
       <c r="BM144" s="2"/>
       <c r="BN144" s="2"/>
     </row>
-    <row r="145" spans="1:66">
+    <row r="145" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -10966,7 +10982,7 @@
       <c r="BM145" s="2"/>
       <c r="BN145" s="2"/>
     </row>
-    <row r="146" spans="1:66">
+    <row r="146" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -11034,7 +11050,7 @@
       <c r="BM146" s="2"/>
       <c r="BN146" s="2"/>
     </row>
-    <row r="147" spans="1:66">
+    <row r="147" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -11102,7 +11118,7 @@
       <c r="BM147" s="2"/>
       <c r="BN147" s="2"/>
     </row>
-    <row r="148" spans="1:66">
+    <row r="148" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -11170,7 +11186,7 @@
       <c r="BM148" s="2"/>
       <c r="BN148" s="2"/>
     </row>
-    <row r="149" spans="1:66">
+    <row r="149" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -11238,7 +11254,7 @@
       <c r="BM149" s="2"/>
       <c r="BN149" s="2"/>
     </row>
-    <row r="150" spans="1:66">
+    <row r="150" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -11306,7 +11322,7 @@
       <c r="BM150" s="2"/>
       <c r="BN150" s="2"/>
     </row>
-    <row r="151" spans="1:66">
+    <row r="151" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -11374,7 +11390,7 @@
       <c r="BM151" s="2"/>
       <c r="BN151" s="2"/>
     </row>
-    <row r="152" spans="1:66">
+    <row r="152" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -11442,7 +11458,7 @@
       <c r="BM152" s="2"/>
       <c r="BN152" s="2"/>
     </row>
-    <row r="153" spans="1:66">
+    <row r="153" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -11510,7 +11526,7 @@
       <c r="BM153" s="2"/>
       <c r="BN153" s="2"/>
     </row>
-    <row r="154" spans="1:66">
+    <row r="154" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -11578,7 +11594,7 @@
       <c r="BM154" s="2"/>
       <c r="BN154" s="2"/>
     </row>
-    <row r="155" spans="1:66">
+    <row r="155" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -11646,7 +11662,7 @@
       <c r="BM155" s="2"/>
       <c r="BN155" s="2"/>
     </row>
-    <row r="156" spans="1:66">
+    <row r="156" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -11714,7 +11730,7 @@
       <c r="BM156" s="2"/>
       <c r="BN156" s="2"/>
     </row>
-    <row r="157" spans="1:66">
+    <row r="157" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -11782,7 +11798,7 @@
       <c r="BM157" s="2"/>
       <c r="BN157" s="2"/>
     </row>
-    <row r="158" spans="1:66">
+    <row r="158" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -11850,7 +11866,7 @@
       <c r="BM158" s="2"/>
       <c r="BN158" s="2"/>
     </row>
-    <row r="159" spans="1:66">
+    <row r="159" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -11918,7 +11934,7 @@
       <c r="BM159" s="2"/>
       <c r="BN159" s="2"/>
     </row>
-    <row r="160" spans="1:66">
+    <row r="160" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -11986,7 +12002,7 @@
       <c r="BM160" s="2"/>
       <c r="BN160" s="2"/>
     </row>
-    <row r="161" spans="1:66">
+    <row r="161" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -12054,7 +12070,7 @@
       <c r="BM161" s="2"/>
       <c r="BN161" s="2"/>
     </row>
-    <row r="162" spans="1:66">
+    <row r="162" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -12122,7 +12138,7 @@
       <c r="BM162" s="2"/>
       <c r="BN162" s="2"/>
     </row>
-    <row r="163" spans="1:66">
+    <row r="163" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -12190,7 +12206,7 @@
       <c r="BM163" s="2"/>
       <c r="BN163" s="2"/>
     </row>
-    <row r="164" spans="1:66">
+    <row r="164" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -12258,7 +12274,7 @@
       <c r="BM164" s="2"/>
       <c r="BN164" s="2"/>
     </row>
-    <row r="165" spans="1:66">
+    <row r="165" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -12326,7 +12342,7 @@
       <c r="BM165" s="2"/>
       <c r="BN165" s="2"/>
     </row>
-    <row r="166" spans="1:66">
+    <row r="166" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -12394,7 +12410,7 @@
       <c r="BM166" s="2"/>
       <c r="BN166" s="2"/>
     </row>
-    <row r="167" spans="1:66">
+    <row r="167" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -12462,7 +12478,7 @@
       <c r="BM167" s="2"/>
       <c r="BN167" s="2"/>
     </row>
-    <row r="168" spans="1:66">
+    <row r="168" spans="1:66" x14ac:dyDescent="0.3">
       <c r="BA168" s="2"/>
       <c r="BB168" s="2"/>
       <c r="BC168" s="2"/>
@@ -12478,7 +12494,6 @@
       <c r="BM168" s="2"/>
       <c r="BN168" s="2"/>
     </row>
-    <row r="169" spans="1:66" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
